--- a/zazic-scale-up/forms/app/referral_for_care.xlsx
+++ b/zazic-scale-up/forms/app/referral_for_care.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>type</t>
   </si>
@@ -152,109 +152,109 @@
     <t>n</t>
   </si>
   <si>
-    <t>Used by the super nurse to refer potential adverse events to the site nurse for attention</t>
+    <t>Used to refer potential adverse events to the site nurse for attention</t>
+  </si>
+  <si>
+    <t>select_multiple symptoms</t>
+  </si>
+  <si>
+    <t>symptoms_list</t>
+  </si>
+  <si>
+    <t>What is the client experiencing</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>symptoms_other</t>
+  </si>
+  <si>
+    <t>Specify other</t>
+  </si>
+  <si>
+    <t>selected(${symptoms_list}, 'other')</t>
+  </si>
+  <si>
+    <t>additional_notes</t>
+  </si>
+  <si>
+    <t>Please add additional notes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>list_name</t>
   </si>
   <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>bleeding</t>
+  </si>
+  <si>
+    <t>Bleeding</t>
+  </si>
+  <si>
+    <t>swellling</t>
+  </si>
+  <si>
+    <t>Swelling</t>
+  </si>
+  <si>
+    <t>pus</t>
+  </si>
+  <si>
+    <t>Pus</t>
+  </si>
+  <si>
+    <t>pain</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>redness</t>
+  </si>
+  <si>
+    <t>Redness</t>
+  </si>
+  <si>
+    <t>wound</t>
+  </si>
+  <si>
+    <t>Wound opening</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>select_multiple symptoms</t>
-  </si>
-  <si>
-    <t>bleeding</t>
-  </si>
-  <si>
-    <t>Bleeding</t>
-  </si>
-  <si>
-    <t>symptoms_list</t>
-  </si>
-  <si>
-    <t>What is the client experiencing</t>
-  </si>
-  <si>
-    <t>swellling</t>
-  </si>
-  <si>
-    <t>Swelling</t>
-  </si>
-  <si>
-    <t>pus</t>
-  </si>
-  <si>
-    <t>Pus</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
     <t>style</t>
   </si>
   <si>
     <t>path</t>
   </si>
   <si>
-    <t>redness</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
-    <t>Redness</t>
-  </si>
-  <si>
-    <t>wound</t>
-  </si>
-  <si>
     <t>formId</t>
   </si>
   <si>
-    <t>Wound opening</t>
-  </si>
-  <si>
     <t>default_language</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>symptoms_other</t>
-  </si>
-  <si>
-    <t>Specify other</t>
-  </si>
-  <si>
-    <t>selected(${symptoms_list}, 'other')</t>
-  </si>
-  <si>
-    <t>additional_notes</t>
-  </si>
-  <si>
-    <t>Please add additional notes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Referral for Care</t>
@@ -304,13 +304,18 @@
       <name val="Cambria"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <sz val="12.0"/>
-      <color rgb="FF843C0B"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="12.0"/>
-      <color theme="1"/>
+      <color rgb="FF843C0B"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -327,7 +332,7 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -340,11 +345,6 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -393,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -425,6 +425,12 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -433,41 +439,38 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="2" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -843,7 +846,9 @@
       <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -854,6 +859,9 @@
       </c>
       <c r="C8" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -871,76 +879,76 @@
       <c r="C10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="15" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
@@ -949,7 +957,7 @@
       <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="5"/>
@@ -985,83 +993,83 @@
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
+      <c r="A15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>75</v>
+      <c r="A16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -1090,69 +1098,69 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -2160,7 +2168,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2175,80 +2183,80 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
+      <c r="A3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>54</v>
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="19" t="s">
         <v>56</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>60</v>
+      <c r="A6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>65</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -3281,59 +3289,59 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="A1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="H1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="26">
         <v>43896.0</v>
       </c>
       <c r="D2" s="25" t="s">

--- a/zazic-scale-up/forms/app/referral_for_care.xlsx
+++ b/zazic-scale-up/forms/app/referral_for_care.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>type</t>
   </si>
@@ -107,6 +107,9 @@
     <t>db-object</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>Select a person from list</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>Patient ID</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>../inputs/contact/_id</t>
@@ -282,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -302,6 +302,10 @@
       <sz val="11.0"/>
       <color rgb="FF833C0C"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -393,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -421,50 +425,53 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -832,21 +839,24 @@
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -854,110 +864,110 @@
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="15" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="5"/>
@@ -993,87 +1003,87 @@
       <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1103,64 +1113,64 @@
       <c r="B17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -2183,79 +2193,79 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2298,7 +2308,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -3289,94 +3299,94 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>43896.0</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
